--- a/Data prisvekst mappe 2.xlsx
+++ b/Data prisvekst mappe 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Desktop/Forsgrens-map/SOK-1016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F89532F-D299-404D-B4B6-90B73DDC6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081121DD-180B-4C48-B19C-D7A225BE42ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8DAE380D-A684-734B-AB84-B3493F33868D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{8DAE380D-A684-734B-AB84-B3493F33868D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,6 @@
     <t>forventet kpi neste 12 måneder</t>
   </si>
   <si>
-    <t>1. kv. 2015</t>
-  </si>
-  <si>
-    <t>2. kv. 2015</t>
-  </si>
-  <si>
-    <t>3. kv. 2015</t>
-  </si>
-  <si>
-    <t>4. kv. 2015</t>
-  </si>
-  <si>
     <t>1. kv. 2016</t>
   </si>
   <si>
@@ -147,6 +135,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 6,4</t>
+  </si>
+  <si>
+    <t>1. kv. 2023</t>
+  </si>
+  <si>
+    <t>2. kv. 2023</t>
+  </si>
+  <si>
+    <t>3. kv. 2023</t>
+  </si>
+  <si>
+    <t>4. kv. 2023</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>3.2</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
         <v>4.3</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2">
         <v>3.6</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
